--- a/WhatsAppExcelMonitorElevenLabsV2/scripts/excel/25012026.xlsx
+++ b/WhatsAppExcelMonitorElevenLabsV2/scripts/excel/25012026.xlsx
@@ -1,117 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <sheets>
-    <sheet sheetId="1" name="Evangelio y Oraciones" state="visible" r:id="rId4"/>
+    <sheet name="Evangelio y Oraciones" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <definedNames/>
+  <calcPr calcId="171027" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="24">
-  <si>
-    <t>NOMBRES</t>
-  </si>
-  <si>
-    <t>APELLIDO_PATERNO</t>
-  </si>
-  <si>
-    <t>APELLIDO_MATERNO</t>
-  </si>
-  <si>
-    <t>CELULAR</t>
-  </si>
-  <si>
-    <t>MAIL</t>
-  </si>
-  <si>
-    <t>CORREO</t>
-  </si>
-  <si>
-    <t>SMS</t>
-  </si>
-  <si>
-    <t>WHATSAPP</t>
-  </si>
-  <si>
-    <t>TEXTO_MENSAJE</t>
-  </si>
-  <si>
-    <t>Alejandro</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>56994148421</t>
-  </si>
-  <si>
-    <t>lucesalejandro3@gmail.com</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">domingo, 25 de enero de 2026
-*Evangelio del Día*
-Lectura del santo evangelio según san Mateo
-Mateo 4, 12-23 Al enterarse Jesús de que Juan había sido arrestado, se retiró a Galilea, y dejando el pueblo de Nazaret, se fue a vivir a Cafarnaúm, junto al lago, en territorio de Zabulón y Neftalí, para que así se cumpliera lo que había anunciado el profeta Isaías: Tierra de Zabulón y Neftalí, camino del mar, al otro lado del Jordán, Galilea de los paganos. El pueblo que caminaba en tinieblas vio una gran luz. Sobre los que vivían en tierra de sombras una luz resplandeció. Desde entonces comenzó Jesús a predicar, diciendo: “Conviértanse, porque ya está cerca el Reino de los cielos”. Una vez que Jesús caminaba por la ribera del mar de Galilea, vio a dos hermanos, Simón, llamado después Pedro, y Andrés, los cuales estaban echando las redes al mar, porque eran pescadores. Jesús les dijo: “Síganme y los haré pescadores de hombres”. Ellos inmediatamente dejaron las redes y lo siguieron. Pasando más adelante, vio a otros dos hermanos, Santiago y Juan, hijos de Zebedeo, que estaban con su padre en la barca, remendando las redes, y los llamó también. Ellos, dejando enseguida la barca y a su padre, lo siguieron. Andaba por toda Galilea, enseñando en las sinagogas y proclamando la buena nueva del Reino de Dios y curando a la gente de toda enfermedad y dolencia.
-*Oración de la mañana*
-Querido Jesús, Luz del mundo, te agradezco por tu amor y tu misericordia. Ayúdame hoy a seguirte con el mismo fervor y prontitud con que lo hicieron Pedro, Andrés, Santiago y Juan. Inspírame a convertirme en un pescador de hombres, compartiendo tu amor y tu palabra con todos los que encuentro en mi camino.
-Amadísimo Padre, te agradezco por este nuevo día que me regalas. Gracias por iluminar mi camino, así como iluminaste la tierra de Zabulón y Neftalí. Ayúdame a recordar que aun cuando parezca que camino en tinieblas, tu luz siempre resplandece sobre mí. Guíame para que pueda acercarme más a tu Reino y vivir de acuerdo con tus enseñanzas.
-Espíritu Santo, te imploro que me guíes y me fortalezcas en este día. Permíteme ser un instrumento de tu paz y amor. Ayúdame a proclamar la buena nueva del Reino de Dios, a aliviar las dolencias de aquellos a mi alrededor y a seguir tu camino de justicia y misericordia.
-En la Trinidad confío, y a ella dedico este nuevo día. Amén.</t>
-  </si>
-  <si>
-    <t>Omar</t>
-  </si>
-  <si>
-    <t>56973223070</t>
-  </si>
-  <si>
-    <t>Mama</t>
-  </si>
-  <si>
-    <t>56971748545</t>
-  </si>
-  <si>
-    <t>Victor</t>
-  </si>
-  <si>
-    <t>56931123918</t>
-  </si>
-  <si>
-    <t>Yume</t>
-  </si>
-  <si>
-    <t>584146711206</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
       <color theme="1"/>
-      <family val="2"/>
+      <sz val="11"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -135,28 +51,87 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -481,193 +456,447 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelRow="0"/>
   <cols>
-    <col min="1" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="30" customWidth="1"/>
-    <col min="6" max="8" width="5" customWidth="1"/>
-    <col min="9" max="9" width="100" style="1" customWidth="1"/>
+    <col width="20" customWidth="1" min="1" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="30" customWidth="1" min="5" max="5"/>
+    <col width="5" customWidth="1" min="6" max="8"/>
+    <col width="100" customWidth="1" style="1" min="9" max="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" customFormat="1" s="2">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>NOMBRES</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>APELLIDO_PATERNO</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>APELLIDO_MATERNO</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>CELULAR</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>MAIL</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>CORREO</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>SMS</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>WHATSAPP</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>TEXTO_MENSAJE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="150" customHeight="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Alejandro</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>56994148421</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>lucesalejandro3@gmail.com</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I2" s="1" t="inlineStr">
+        <is>
+          <t>domingo, 25 de enero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Mateo
+Mateo 4, 12-23 Al enterarse Jesús de que Juan había sido arrestado, se retiró a Galilea, y dejando el pueblo de Nazaret, se fue a vivir a Cafarnaúm, junto al lago, en territorio de Zabulón y Neftalí, para que así se cumpliera lo que había anunciado el profeta Isaías: Tierra de Zabulón y Neftalí, camino del mar, al otro lado del Jordán, Galilea de los paganos. El pueblo que caminaba en tinieblas vio una gran luz. Sobre los que vivían en tierra de sombras una luz resplandeció. Desde entonces comenzó Jesús a predicar, diciendo: “Conviértanse, porque ya está cerca el Reino de los cielos”. Una vez que Jesús caminaba por la ribera del mar de Galilea, vio a dos hermanos, Simón, llamado después Pedro, y Andrés, los cuales estaban echando las redes al mar, porque eran pescadores. Jesús les dijo: “Síganme y los haré pescadores de hombres”. Ellos inmediatamente dejaron las redes y lo siguieron. Pasando más adelante, vio a otros dos hermanos, Santiago y Juan, hijos de Zebedeo, que estaban con su padre en la barca, remendando las redes, y los llamó también. Ellos, dejando enseguida la barca y a su padre, lo siguieron. Andaba por toda Galilea, enseñando en las sinagogas y proclamando la buena nueva del Reino de Dios y curando a la gente de toda enfermedad y dolencia.
+*Oración de la mañana*
+Querido Jesús, Luz del mundo, te agradezco por tu amor y tu misericordia. Ayúdame hoy a seguirte con el mismo fervor y prontitud con que lo hicieron Pedro, Andrés, Santiago y Juan. Inspírame a convertirme en un pescador de hombres, compartiendo tu amor y tu palabra con todos los que encuentro en mi camino.
+Amadísimo Padre, te agradezco por este nuevo día que me regalas. Gracias por iluminar mi camino, así como iluminaste la tierra de Zabulón y Neftalí. Ayúdame a recordar que aun cuando parezca que camino en tinieblas, tu luz siempre resplandece sobre mí. Guíame para que pueda acercarme más a tu Reino y vivir de acuerdo con tus enseñanzas.
+Espíritu Santo, te imploro que me guíes y me fortalezcas en este día. Permíteme ser un instrumento de tu paz y amor. Ayúdame a proclamar la buena nueva del Reino de Dios, a aliviar las dolencias de aquellos a mi alrededor y a seguir tu camino de justicia y misericordia.
+En la Trinidad confío, y a ella dedico este nuevo día. Amén.</t>
+        </is>
       </c>
     </row>
-    <row r="2" ht="150" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2">
+    <row r="3" ht="150" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Omar</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>56973223070</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>lucesalejandro3@gmail.com</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
         <v>0</v>
       </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>15</v>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I3" s="1" t="inlineStr">
+        <is>
+          <t>domingo, 25 de enero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Mateo
+Mateo 4, 12-23 Al enterarse Jesús de que Juan había sido arrestado, se retiró a Galilea, y dejando el pueblo de Nazaret, se fue a vivir a Cafarnaúm, junto al lago, en territorio de Zabulón y Neftalí, para que así se cumpliera lo que había anunciado el profeta Isaías: Tierra de Zabulón y Neftalí, camino del mar, al otro lado del Jordán, Galilea de los paganos. El pueblo que caminaba en tinieblas vio una gran luz. Sobre los que vivían en tierra de sombras una luz resplandeció. Desde entonces comenzó Jesús a predicar, diciendo: “Conviértanse, porque ya está cerca el Reino de los cielos”. Una vez que Jesús caminaba por la ribera del mar de Galilea, vio a dos hermanos, Simón, llamado después Pedro, y Andrés, los cuales estaban echando las redes al mar, porque eran pescadores. Jesús les dijo: “Síganme y los haré pescadores de hombres”. Ellos inmediatamente dejaron las redes y lo siguieron. Pasando más adelante, vio a otros dos hermanos, Santiago y Juan, hijos de Zebedeo, que estaban con su padre en la barca, remendando las redes, y los llamó también. Ellos, dejando enseguida la barca y a su padre, lo siguieron. Andaba por toda Galilea, enseñando en las sinagogas y proclamando la buena nueva del Reino de Dios y curando a la gente de toda enfermedad y dolencia.
+*Oración de la mañana*
+Querido Jesús, Luz del mundo, te agradezco por tu amor y tu misericordia. Ayúdame hoy a seguirte con el mismo fervor y prontitud con que lo hicieron Pedro, Andrés, Santiago y Juan. Inspírame a convertirme en un pescador de hombres, compartiendo tu amor y tu palabra con todos los que encuentro en mi camino.
+Amadísimo Padre, te agradezco por este nuevo día que me regalas. Gracias por iluminar mi camino, así como iluminaste la tierra de Zabulón y Neftalí. Ayúdame a recordar que aun cuando parezca que camino en tinieblas, tu luz siempre resplandece sobre mí. Guíame para que pueda acercarme más a tu Reino y vivir de acuerdo con tus enseñanzas.
+Espíritu Santo, te imploro que me guíes y me fortalezcas en este día. Permíteme ser un instrumento de tu paz y amor. Ayúdame a proclamar la buena nueva del Reino de Dios, a aliviar las dolencias de aquellos a mi alrededor y a seguir tu camino de justicia y misericordia.
+En la Trinidad confío, y a ella dedico este nuevo día. Amén.</t>
+        </is>
       </c>
     </row>
-    <row r="3" ht="150" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3">
+    <row r="4" ht="150" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Mama</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>56971748545</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>lucesalejandro3@gmail.com</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
         <v>0</v>
       </c>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>15</v>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I4" s="1" t="inlineStr">
+        <is>
+          <t>domingo, 25 de enero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Mateo
+Mateo 4, 12-23 Al enterarse Jesús de que Juan había sido arrestado, se retiró a Galilea, y dejando el pueblo de Nazaret, se fue a vivir a Cafarnaúm, junto al lago, en territorio de Zabulón y Neftalí, para que así se cumpliera lo que había anunciado el profeta Isaías: Tierra de Zabulón y Neftalí, camino del mar, al otro lado del Jordán, Galilea de los paganos. El pueblo que caminaba en tinieblas vio una gran luz. Sobre los que vivían en tierra de sombras una luz resplandeció. Desde entonces comenzó Jesús a predicar, diciendo: “Conviértanse, porque ya está cerca el Reino de los cielos”. Una vez que Jesús caminaba por la ribera del mar de Galilea, vio a dos hermanos, Simón, llamado después Pedro, y Andrés, los cuales estaban echando las redes al mar, porque eran pescadores. Jesús les dijo: “Síganme y los haré pescadores de hombres”. Ellos inmediatamente dejaron las redes y lo siguieron. Pasando más adelante, vio a otros dos hermanos, Santiago y Juan, hijos de Zebedeo, que estaban con su padre en la barca, remendando las redes, y los llamó también. Ellos, dejando enseguida la barca y a su padre, lo siguieron. Andaba por toda Galilea, enseñando en las sinagogas y proclamando la buena nueva del Reino de Dios y curando a la gente de toda enfermedad y dolencia.
+*Oración de la mañana*
+Querido Jesús, Luz del mundo, te agradezco por tu amor y tu misericordia. Ayúdame hoy a seguirte con el mismo fervor y prontitud con que lo hicieron Pedro, Andrés, Santiago y Juan. Inspírame a convertirme en un pescador de hombres, compartiendo tu amor y tu palabra con todos los que encuentro en mi camino.
+Amadísimo Padre, te agradezco por este nuevo día que me regalas. Gracias por iluminar mi camino, así como iluminaste la tierra de Zabulón y Neftalí. Ayúdame a recordar que aun cuando parezca que camino en tinieblas, tu luz siempre resplandece sobre mí. Guíame para que pueda acercarme más a tu Reino y vivir de acuerdo con tus enseñanzas.
+Espíritu Santo, te imploro que me guíes y me fortalezcas en este día. Permíteme ser un instrumento de tu paz y amor. Ayúdame a proclamar la buena nueva del Reino de Dios, a aliviar las dolencias de aquellos a mi alrededor y a seguir tu camino de justicia y misericordia.
+En la Trinidad confío, y a ella dedico este nuevo día. Amén.</t>
+        </is>
       </c>
     </row>
-    <row r="4" ht="150" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4">
+    <row r="5" ht="150" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Victor</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>56931123918</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>lucesalejandro3@gmail.com</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
         <v>0</v>
       </c>
-      <c r="H4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>15</v>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I5" s="1" t="inlineStr">
+        <is>
+          <t>domingo, 25 de enero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Mateo
+Mateo 4, 12-23 Al enterarse Jesús de que Juan había sido arrestado, se retiró a Galilea, y dejando el pueblo de Nazaret, se fue a vivir a Cafarnaúm, junto al lago, en territorio de Zabulón y Neftalí, para que así se cumpliera lo que había anunciado el profeta Isaías: Tierra de Zabulón y Neftalí, camino del mar, al otro lado del Jordán, Galilea de los paganos. El pueblo que caminaba en tinieblas vio una gran luz. Sobre los que vivían en tierra de sombras una luz resplandeció. Desde entonces comenzó Jesús a predicar, diciendo: “Conviértanse, porque ya está cerca el Reino de los cielos”. Una vez que Jesús caminaba por la ribera del mar de Galilea, vio a dos hermanos, Simón, llamado después Pedro, y Andrés, los cuales estaban echando las redes al mar, porque eran pescadores. Jesús les dijo: “Síganme y los haré pescadores de hombres”. Ellos inmediatamente dejaron las redes y lo siguieron. Pasando más adelante, vio a otros dos hermanos, Santiago y Juan, hijos de Zebedeo, que estaban con su padre en la barca, remendando las redes, y los llamó también. Ellos, dejando enseguida la barca y a su padre, lo siguieron. Andaba por toda Galilea, enseñando en las sinagogas y proclamando la buena nueva del Reino de Dios y curando a la gente de toda enfermedad y dolencia.
+*Oración de la mañana*
+Querido Jesús, Luz del mundo, te agradezco por tu amor y tu misericordia. Ayúdame hoy a seguirte con el mismo fervor y prontitud con que lo hicieron Pedro, Andrés, Santiago y Juan. Inspírame a convertirme en un pescador de hombres, compartiendo tu amor y tu palabra con todos los que encuentro en mi camino.
+Amadísimo Padre, te agradezco por este nuevo día que me regalas. Gracias por iluminar mi camino, así como iluminaste la tierra de Zabulón y Neftalí. Ayúdame a recordar que aun cuando parezca que camino en tinieblas, tu luz siempre resplandece sobre mí. Guíame para que pueda acercarme más a tu Reino y vivir de acuerdo con tus enseñanzas.
+Espíritu Santo, te imploro que me guíes y me fortalezcas en este día. Permíteme ser un instrumento de tu paz y amor. Ayúdame a proclamar la buena nueva del Reino de Dios, a aliviar las dolencias de aquellos a mi alrededor y a seguir tu camino de justicia y misericordia.
+En la Trinidad confío, y a ella dedico este nuevo día. Amén.</t>
+        </is>
       </c>
     </row>
-    <row r="5" ht="150" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5">
+    <row r="6" ht="150" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Yume</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>584146711206</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>lucesalejandro3@gmail.com</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
         <v>0</v>
       </c>
-      <c r="H5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>15</v>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I6" s="1" t="inlineStr">
+        <is>
+          <t>domingo, 25 de enero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Mateo
+Mateo 4, 12-23 Al enterarse Jesús de que Juan había sido arrestado, se retiró a Galilea, y dejando el pueblo de Nazaret, se fue a vivir a Cafarnaúm, junto al lago, en territorio de Zabulón y Neftalí, para que así se cumpliera lo que había anunciado el profeta Isaías: Tierra de Zabulón y Neftalí, camino del mar, al otro lado del Jordán, Galilea de los paganos. El pueblo que caminaba en tinieblas vio una gran luz. Sobre los que vivían en tierra de sombras una luz resplandeció. Desde entonces comenzó Jesús a predicar, diciendo: “Conviértanse, porque ya está cerca el Reino de los cielos”. Una vez que Jesús caminaba por la ribera del mar de Galilea, vio a dos hermanos, Simón, llamado después Pedro, y Andrés, los cuales estaban echando las redes al mar, porque eran pescadores. Jesús les dijo: “Síganme y los haré pescadores de hombres”. Ellos inmediatamente dejaron las redes y lo siguieron. Pasando más adelante, vio a otros dos hermanos, Santiago y Juan, hijos de Zebedeo, que estaban con su padre en la barca, remendando las redes, y los llamó también. Ellos, dejando enseguida la barca y a su padre, lo siguieron. Andaba por toda Galilea, enseñando en las sinagogas y proclamando la buena nueva del Reino de Dios y curando a la gente de toda enfermedad y dolencia.
+*Oración de la mañana*
+Querido Jesús, Luz del mundo, te agradezco por tu amor y tu misericordia. Ayúdame hoy a seguirte con el mismo fervor y prontitud con que lo hicieron Pedro, Andrés, Santiago y Juan. Inspírame a convertirme en un pescador de hombres, compartiendo tu amor y tu palabra con todos los que encuentro en mi camino.
+Amadísimo Padre, te agradezco por este nuevo día que me regalas. Gracias por iluminar mi camino, así como iluminaste la tierra de Zabulón y Neftalí. Ayúdame a recordar que aun cuando parezca que camino en tinieblas, tu luz siempre resplandece sobre mí. Guíame para que pueda acercarme más a tu Reino y vivir de acuerdo con tus enseñanzas.
+Espíritu Santo, te imploro que me guíes y me fortalezcas en este día. Permíteme ser un instrumento de tu paz y amor. Ayúdame a proclamar la buena nueva del Reino de Dios, a aliviar las dolencias de aquellos a mi alrededor y a seguir tu camino de justicia y misericordia.
+En la Trinidad confío, y a ella dedico este nuevo día. Amén.</t>
+        </is>
       </c>
     </row>
-    <row r="6" ht="150" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6">
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Mariangely</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>González</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>56972028078</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>mariangelygonzalez14@gmail.com</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
         <v>0</v>
       </c>
-      <c r="H6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>15</v>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>domingo, 25 de enero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Mateo
+Mateo 4, 12-23 Al enterarse Jesús de que Juan había sido arrestado, se retiró a Galilea, y dejando el pueblo de Nazaret, se fue a vivir a Cafarnaúm, junto al lago, en territorio de Zabulón y Neftalí, para que así se cumpliera lo que había anunciado el profeta Isaías: Tierra de Zabulón y Neftalí, camino del mar, al otro lado del Jordán, Galilea de los paganos. El pueblo que caminaba en tinieblas vio una gran luz. Sobre los que vivían en tierra de sombras una luz resplandeció. Desde entonces comenzó Jesús a predicar, diciendo: “Conviértanse, porque ya está cerca el Reino de los cielos”. Una vez que Jesús caminaba por la ribera del mar de Galilea, vio a dos hermanos, Simón, llamado después Pedro, y Andrés, los cuales estaban echando las redes al mar, porque eran pescadores. Jesús les dijo: “Síganme y los haré pescadores de hombres”. Ellos inmediatamente dejaron las redes y lo siguieron. Pasando más adelante, vio a otros dos hermanos, Santiago y Juan, hijos de Zebedeo, que estaban con su padre en la barca, remendando las redes, y los llamó también. Ellos, dejando enseguida la barca y a su padre, lo siguieron. Andaba por toda Galilea, enseñando en las sinagogas y proclamando la buena nueva del Reino de Dios y curando a la gente de toda enfermedad y dolencia.
+*Oración de la mañana*
+Querido Jesús, Luz del mundo, te agradezco por tu amor y tu misericordia. Ayúdame hoy a seguirte con el mismo fervor y prontitud con que lo hicieron Pedro, Andrés, Santiago y Juan. Inspírame a convertirme en un pescador de hombres, compartiendo tu amor y tu palabra con todos los que encuentro en mi camino.
+Amadísimo Padre, te agradezco por este nuevo día que me regalas. Gracias por iluminar mi camino, así como iluminaste la tierra de Zabulón y Neftalí. Ayúdame a recordar que aun cuando parezca que camino en tinieblas, tu luz siempre resplandece sobre mí. Guíame para que pueda acercarme más a tu Reino y vivir de acuerdo con tus enseñanzas.
+Espíritu Santo, te imploro que me guíes y me fortalezcas en este día. Permíteme ser un instrumento de tu paz y amor. Ayúdame a proclamar la buena nueva del Reino de Dios, a aliviar las dolencias de aquellos a mi alrededor y a seguir tu camino de justicia y misericordia.
+En la Trinidad confío, y a ella dedico este nuevo día. Amén.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ALEJANDRO MANUEL</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>LUCES</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>34672527995</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>alejandroluces5515@gmail.com</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>domingo, 25 de enero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Mateo
+Mateo 4, 12-23 Al enterarse Jesús de que Juan había sido arrestado, se retiró a Galilea, y dejando el pueblo de Nazaret, se fue a vivir a Cafarnaúm, junto al lago, en territorio de Zabulón y Neftalí, para que así se cumpliera lo que había anunciado el profeta Isaías: Tierra de Zabulón y Neftalí, camino del mar, al otro lado del Jordán, Galilea de los paganos. El pueblo que caminaba en tinieblas vio una gran luz. Sobre los que vivían en tierra de sombras una luz resplandeció. Desde entonces comenzó Jesús a predicar, diciendo: “Conviértanse, porque ya está cerca el Reino de los cielos”. Una vez que Jesús caminaba por la ribera del mar de Galilea, vio a dos hermanos, Simón, llamado después Pedro, y Andrés, los cuales estaban echando las redes al mar, porque eran pescadores. Jesús les dijo: “Síganme y los haré pescadores de hombres”. Ellos inmediatamente dejaron las redes y lo siguieron. Pasando más adelante, vio a otros dos hermanos, Santiago y Juan, hijos de Zebedeo, que estaban con su padre en la barca, remendando las redes, y los llamó también. Ellos, dejando enseguida la barca y a su padre, lo siguieron. Andaba por toda Galilea, enseñando en las sinagogas y proclamando la buena nueva del Reino de Dios y curando a la gente de toda enfermedad y dolencia.
+*Oración de la mañana*
+Querido Jesús, Luz del mundo, te agradezco por tu amor y tu misericordia. Ayúdame hoy a seguirte con el mismo fervor y prontitud con que lo hicieron Pedro, Andrés, Santiago y Juan. Inspírame a convertirme en un pescador de hombres, compartiendo tu amor y tu palabra con todos los que encuentro en mi camino.
+Amadísimo Padre, te agradezco por este nuevo día que me regalas. Gracias por iluminar mi camino, así como iluminaste la tierra de Zabulón y Neftalí. Ayúdame a recordar que aun cuando parezca que camino en tinieblas, tu luz siempre resplandece sobre mí. Guíame para que pueda acercarme más a tu Reino y vivir de acuerdo con tus enseñanzas.
+Espíritu Santo, te imploro que me guíes y me fortalezcas en este día. Permíteme ser un instrumento de tu paz y amor. Ayúdame a proclamar la buena nueva del Reino de Dios, a aliviar las dolencias de aquellos a mi alrededor y a seguir tu camino de justicia y misericordia.
+En la Trinidad confío, y a ella dedico este nuevo día. Amén.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Marianny</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Gonzalez</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>56967970252</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>marikaro2508@gmail.com</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>domingo, 25 de enero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Mateo
+Mateo 4, 12-23 Al enterarse Jesús de que Juan había sido arrestado, se retiró a Galilea, y dejando el pueblo de Nazaret, se fue a vivir a Cafarnaúm, junto al lago, en territorio de Zabulón y Neftalí, para que así se cumpliera lo que había anunciado el profeta Isaías: Tierra de Zabulón y Neftalí, camino del mar, al otro lado del Jordán, Galilea de los paganos. El pueblo que caminaba en tinieblas vio una gran luz. Sobre los que vivían en tierra de sombras una luz resplandeció. Desde entonces comenzó Jesús a predicar, diciendo: “Conviértanse, porque ya está cerca el Reino de los cielos”. Una vez que Jesús caminaba por la ribera del mar de Galilea, vio a dos hermanos, Simón, llamado después Pedro, y Andrés, los cuales estaban echando las redes al mar, porque eran pescadores. Jesús les dijo: “Síganme y los haré pescadores de hombres”. Ellos inmediatamente dejaron las redes y lo siguieron. Pasando más adelante, vio a otros dos hermanos, Santiago y Juan, hijos de Zebedeo, que estaban con su padre en la barca, remendando las redes, y los llamó también. Ellos, dejando enseguida la barca y a su padre, lo siguieron. Andaba por toda Galilea, enseñando en las sinagogas y proclamando la buena nueva del Reino de Dios y curando a la gente de toda enfermedad y dolencia.
+*Oración de la mañana*
+Querido Jesús, Luz del mundo, te agradezco por tu amor y tu misericordia. Ayúdame hoy a seguirte con el mismo fervor y prontitud con que lo hicieron Pedro, Andrés, Santiago y Juan. Inspírame a convertirme en un pescador de hombres, compartiendo tu amor y tu palabra con todos los que encuentro en mi camino.
+Amadísimo Padre, te agradezco por este nuevo día que me regalas. Gracias por iluminar mi camino, así como iluminaste la tierra de Zabulón y Neftalí. Ayúdame a recordar que aun cuando parezca que camino en tinieblas, tu luz siempre resplandece sobre mí. Guíame para que pueda acercarme más a tu Reino y vivir de acuerdo con tus enseñanzas.
+Espíritu Santo, te imploro que me guíes y me fortalezcas en este día. Permíteme ser un instrumento de tu paz y amor. Ayúdame a proclamar la buena nueva del Reino de Dios, a aliviar las dolencias de aquellos a mi alrededor y a seguir tu camino de justicia y misericordia.
+En la Trinidad confío, y a ella dedico este nuevo día. Amén.</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
--- a/WhatsAppExcelMonitorElevenLabsV2/scripts/excel/25012026.xlsx
+++ b/WhatsAppExcelMonitorElevenLabsV2/scripts/excel/25012026.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -529,8 +529,6 @@
           <t>Alejandro</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
           <t>56994148421</t>
@@ -574,8 +572,6 @@
           <t>Omar</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
           <t>56973223070</t>
@@ -619,8 +615,6 @@
           <t>Mama</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
           <t>56971748545</t>
@@ -664,8 +658,6 @@
           <t>Victor</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
           <t>56931123918</t>
@@ -709,8 +701,6 @@
           <t>Yume</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
           <t>584146711206</t>
@@ -759,7 +749,6 @@
           <t>González</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
           <t>56972028078</t>
@@ -808,7 +797,6 @@
           <t>LUCES</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
           <t>34672527995</t>
@@ -857,7 +845,6 @@
           <t>Gonzalez</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
           <t>56967970252</t>
@@ -895,6 +882,55 @@
         </is>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Milagros</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>González</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>56936637515</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Milagrosghurtado@gmail.com</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>domingo, 25 de enero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Mateo
+Mateo 4, 12-23 Al enterarse Jesús de que Juan había sido arrestado, se retiró a Galilea, y dejando el pueblo de Nazaret, se fue a vivir a Cafarnaúm, junto al lago, en territorio de Zabulón y Neftalí, para que así se cumpliera lo que había anunciado el profeta Isaías: Tierra de Zabulón y Neftalí, camino del mar, al otro lado del Jordán, Galilea de los paganos. El pueblo que caminaba en tinieblas vio una gran luz. Sobre los que vivían en tierra de sombras una luz resplandeció. Desde entonces comenzó Jesús a predicar, diciendo: “Conviértanse, porque ya está cerca el Reino de los cielos”. Una vez que Jesús caminaba por la ribera del mar de Galilea, vio a dos hermanos, Simón, llamado después Pedro, y Andrés, los cuales estaban echando las redes al mar, porque eran pescadores. Jesús les dijo: “Síganme y los haré pescadores de hombres”. Ellos inmediatamente dejaron las redes y lo siguieron. Pasando más adelante, vio a otros dos hermanos, Santiago y Juan, hijos de Zebedeo, que estaban con su padre en la barca, remendando las redes, y los llamó también. Ellos, dejando enseguida la barca y a su padre, lo siguieron. Andaba por toda Galilea, enseñando en las sinagogas y proclamando la buena nueva del Reino de Dios y curando a la gente de toda enfermedad y dolencia.
+*Oración de la mañana*
+Querido Jesús, Luz del mundo, te agradezco por tu amor y tu misericordia. Ayúdame hoy a seguirte con el mismo fervor y prontitud con que lo hicieron Pedro, Andrés, Santiago y Juan. Inspírame a convertirme en un pescador de hombres, compartiendo tu amor y tu palabra con todos los que encuentro en mi camino.
+Amadísimo Padre, te agradezco por este nuevo día que me regalas. Gracias por iluminar mi camino, así como iluminaste la tierra de Zabulón y Neftalí. Ayúdame a recordar que aun cuando parezca que camino en tinieblas, tu luz siempre resplandece sobre mí. Guíame para que pueda acercarme más a tu Reino y vivir de acuerdo con tus enseñanzas.
+Espíritu Santo, te imploro que me guíes y me fortalezcas en este día. Permíteme ser un instrumento de tu paz y amor. Ayúdame a proclamar la buena nueva del Reino de Dios, a aliviar las dolencias de aquellos a mi alrededor y a seguir tu camino de justicia y misericordia.
+En la Trinidad confío, y a ella dedico este nuevo día. Amén.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
